--- a/medicine/Enfance/La_Joie_de_lire_(maison_d'édition)/La_Joie_de_lire_(maison_d'édition).xlsx
+++ b/medicine/Enfance/La_Joie_de_lire_(maison_d'édition)/La_Joie_de_lire_(maison_d'édition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Joie_de_lire_(maison_d%27%C3%A9dition)</t>
+          <t>La_Joie_de_lire_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Joie de lire est une maison d'édition suisse, spécialisée en littérature jeunesse.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Joie_de_lire_(maison_d%27%C3%A9dition)</t>
+          <t>La_Joie_de_lire_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1937, Paul Robert fonde à Genève, place du Bourg-de-Four 38, la librairie de La joie de lire, une des premières librairies spécialisées en littérature pour la jeunesse d'Europe[1],[2].
-Francine Bouchet prend la direction de la librairie en 1981[3],[4], met en place diverses activités pour les enfants et lance le prix Enfantaisie en 1987. Cette année-là, elle fonde les éditions La Joie de lire[5],[6],[7].
-En 1991, la librairie est fermée au profit de l'activité éditoriale[8].
-En 2019, la maison d'édition reçoit le prix ProLitteris[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937, Paul Robert fonde à Genève, place du Bourg-de-Four 38, la librairie de La joie de lire, une des premières librairies spécialisées en littérature pour la jeunesse d'Europe,.
+Francine Bouchet prend la direction de la librairie en 1981 met en place diverses activités pour les enfants et lance le prix Enfantaisie en 1987. Cette année-là, elle fonde les éditions La Joie de lire.
+En 1991, la librairie est fermée au profit de l'activité éditoriale.
+En 2019, la maison d'édition reçoit le prix ProLitteris.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Joie_de_lire_(maison_d%27%C3%A9dition)</t>
+          <t>La_Joie_de_lire_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Les collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Albums
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Joie_de_lire_(maison_d%27%C3%A9dition)</t>
+          <t>La_Joie_de_lire_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Auteurs publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Albertine
@@ -609,7 +627,7 @@
 Léopold Chauveau
 Fanny Dreyer
 Wolf Erlbruch
-Anne-Lise Grobéty[10]
+Anne-Lise Grobéty
 Blaise Hofmann
 Jan Marejko
 Romain Puértolas
